--- a/excel_with_subclasses/without_zeros/still_waters_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/still_waters_with_count_without_zeros.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -433,288 +433,243 @@
           <t>Q337567_водоём</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>3717</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q5926864</t>
+          <t>Q303874</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>группа озёр</t>
+          <t>сардоба</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1405</v>
+          <t>Q838858_Цистерна</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q303874</t>
+          <t>Q838858</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>сардоба</t>
+          <t>Цистерна</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>433</v>
+          <t>Q2551525_водный резервуар</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q838858</t>
+          <t>Q2551525</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Цистерна</t>
+          <t>водный резервуар</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>72</v>
+          <t>Q337567_водоём</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q2551525</t>
+          <t>Q932689</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>водный резервуар</t>
+          <t>поильник</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Q337567_водоём</t>
         </is>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q932689</t>
+          <t>Q14723701</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>поильник</t>
+          <t>aljibe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>35</v>
+          <t>Q838858_Цистерна</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q14723701</t>
+          <t>Q6501028</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>aljibe</t>
+          <t>water tank</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>31</v>
+          <t>Q2551525_водный резервуар</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q6501028</t>
+          <t>Q208791</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>water tank</t>
+          <t>водоносный горизонт</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Q2551525_водный резервуар</t>
         </is>
-      </c>
-      <c r="D9" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q208791</t>
+          <t>Q93429857</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>водоносный горизонт</t>
+          <t>ancient Roman cistern</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>28</v>
+          <t>Q838858_Цистерна</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q93429857</t>
+          <t>Q291099</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ancient Roman cistern</t>
+          <t>Stream pool</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
+          <t>Q3177968_пруд</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q291099</t>
+          <t>Q85842470</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stream pool</t>
+          <t>искусственный пруд</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Q3177968_пруд</t>
         </is>
-      </c>
-      <c r="D12" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q85842470</t>
+          <t>Q152841</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>искусственный пруд</t>
+          <t>Лужа</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q3177968_пруд</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
+          <t>Q337567_водоём</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q152841</t>
+          <t>Q1621678</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лужа</t>
+          <t>elevated tank</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
+          <t>Q6501028_water tank</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1621678</t>
+          <t>Q735881</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>elevated tank</t>
+          <t>bog pond</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q6501028_water tank</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
+          <t>Q337567_водоём</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q735881</t>
+          <t>Q28858478</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bog pond</t>
+          <t>watering trough</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
+          <t>Q6501028_water tank</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -733,148 +688,90 @@
           <t>Q55965244_палеоозеро</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q28858478</t>
+          <t>Q177734</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>watering trough</t>
+          <t>артезианские воды</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q6501028_water tank</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
+          <t>Q208791_водоносный горизонт</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q177734</t>
+          <t>Q2550985</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>артезианские воды</t>
+          <t>водная поверхность</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
+          <t>Q337567_водоём</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q2550985</t>
+          <t>Q61861051</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>водная поверхность</t>
+          <t>laguna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Q337567_водоём</t>
         </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q61861051</t>
+          <t>Q1234707</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>laguna</t>
+          <t>heathland pond</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
+          <t>Q16710063_oligotrophic lake</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q1234707</t>
+          <t>Q583075</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>heathland pond</t>
+          <t>уровень грунтовых вод</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q16710063_oligotrophic lake</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Q583075</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>уровень грунтовых вод</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>Q208791_водоносный горизонт</t>
         </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q25498657</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>group of interconnected lakes</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Q5926864_группа озёр</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +811,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -934,9 +831,6 @@
           <t>Q9430_океан</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -953,9 +847,6 @@
         <is>
           <t>Q1982207_суперокеан,Q11802343_древний океан</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +886,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1015,9 +906,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>979</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1035,9 +923,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1055,9 +940,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1075,9 +957,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1095,9 +974,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1115,9 +991,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1135,9 +1008,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1155,9 +1025,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1175,9 +1042,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1195,9 +1059,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1215,9 +1076,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1235,9 +1093,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1255,9 +1110,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1275,9 +1127,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1295,9 +1144,6 @@
           <t>Q85842470_искусственный пруд</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1315,9 +1161,6 @@
           <t>Q3253281_пруд</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1334,9 +1177,6 @@
         <is>
           <t>Q3253281_пруд</t>
         </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1216,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1396,9 +1236,6 @@
           <t>Q131681_водохранилище</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>305</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1416,9 +1253,6 @@
           <t>Q131681_водохранилище</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1436,9 +1270,6 @@
           <t>Q131681_водохранилище</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1455,9 +1286,6 @@
         <is>
           <t>Q131681_водохранилище</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1325,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1517,9 +1345,7 @@
           <t>Q62562206_маршевые почвы</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>95</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1537,9 +1363,7 @@
           <t>Q30198_болото</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
